--- a/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OCFCA/Planeación/Plan de Proyecto.xlsx
+++ b/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OCFCA/Planeación/Plan de Proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -645,16 +645,10 @@
     <t>Cerrado</t>
   </si>
   <si>
-    <t xml:space="preserve">Falla de servicio electrico </t>
-  </si>
-  <si>
     <t>Home work</t>
   </si>
   <si>
     <t>Comunicación con el cliente para reagendar cita</t>
-  </si>
-  <si>
-    <t>Falla de servicio de internet</t>
   </si>
   <si>
     <t>Tener contrato con varias compañias de internet</t>
@@ -699,9 +693,6 @@
     <t>9 y 10 de Diciembre del 2015</t>
   </si>
   <si>
-    <t>Falla de conexión remota con Ammyy Admin</t>
-  </si>
-  <si>
     <t>TeamViwer, Show myPC</t>
   </si>
   <si>
@@ -714,9 +705,6 @@
     <t>por evento</t>
   </si>
   <si>
-    <t>Fallá en instalación y configuración del sistema</t>
-  </si>
-  <si>
     <t>Validar los requerimientos minimos del equipo</t>
   </si>
   <si>
@@ -726,13 +714,25 @@
     <t>1 ocación</t>
   </si>
   <si>
-    <t>Fallas de descarga por baja potencia en internet del cliente</t>
-  </si>
-  <si>
     <t>Validar que la descarga se halla realizado</t>
   </si>
   <si>
     <t>Reagenda la cita</t>
+  </si>
+  <si>
+    <t>Falla de servicio electrico, causa la falta de conexión entre los dispositivos electrónicos</t>
+  </si>
+  <si>
+    <t>Falla de servicio de internet, impide la comunicación con el cliente</t>
+  </si>
+  <si>
+    <t>Falla de conexión remota con Ammyy Admin, interrumpe la conexión remota con el cliente</t>
+  </si>
+  <si>
+    <t>Fallá en instalación y configuración del sistema, impide que terminemos el servicio en tiempo y forma al igual que servicios posteriores</t>
+  </si>
+  <si>
+    <t>Fallas de descarga por baja potencia en internet del cliente, impide que terminemos el servicio en tiempo y forma al igual que servicios posteriores</t>
   </si>
 </sst>
 </file>
@@ -1585,15 +1585,15 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2631,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2683,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="129" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="129"/>
     </row>
@@ -4865,10 +4865,10 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="132"/>
+      <c r="B6" s="135"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
@@ -4921,7 +4921,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -5039,10 +5039,10 @@
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
-        <v>145</v>
+      <c r="A26" s="133" t="s">
+        <v>143</v>
       </c>
-      <c r="B26" s="134"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5052,10 +5052,10 @@
       <c r="B27" s="130"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="133" t="s">
-        <v>146</v>
+      <c r="A28" s="132" t="s">
+        <v>144</v>
       </c>
-      <c r="B28" s="134"/>
+      <c r="B28" s="133"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="130" t="s">
@@ -5064,13 +5064,18 @@
       <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="135"/>
+      <c r="B30" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -5080,11 +5085,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -16498,16 +16498,16 @@
         <v>121</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="122">
         <v>3434108115</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -23953,13 +23953,13 @@
         <v>125</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -24988,13 +24988,13 @@
         <v>125</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>152</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:1023" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -25159,7 +25159,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4" s="125" t="s">
         <v>122</v>
@@ -25298,8 +25298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26471,12 +26471,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>1</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C5" s="60">
         <v>5</v>
@@ -26492,10 +26492,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>118</v>
@@ -27525,7 +27525,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C6" s="60">
         <v>5</v>
@@ -27541,10 +27541,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="63" t="s">
         <v>118</v>
@@ -28569,12 +28569,12 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <v>3</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C7" s="60">
         <v>1</v>
@@ -28590,19 +28590,19 @@
         <v>4</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>136</v>
       </c>
       <c r="K7" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -29618,12 +29618,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="60">
         <v>4</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C8" s="60">
         <v>4</v>
@@ -29639,19 +29639,19 @@
         <v>3</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>136</v>
       </c>
       <c r="K8" s="65" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -30667,12 +30667,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="60">
         <v>5</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="60">
         <v>4</v>
@@ -30688,10 +30688,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>23</v>
@@ -30700,7 +30700,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
